--- a/formulieren/05000.xlsx
+++ b/formulieren/05000.xlsx
@@ -1024,16 +1024,16 @@
         <v>P311</v>
       </c>
       <c r="I1" t="str">
+        <v>P315</v>
+      </c>
+      <c r="J1" t="str">
         <v>P357</v>
       </c>
-      <c r="J1" t="str">
-        <v>P315</v>
-      </c>
       <c r="K1" t="str">
+        <v>P373</v>
+      </c>
+      <c r="L1" t="str">
         <v>P359</v>
-      </c>
-      <c r="L1" t="str">
-        <v>P373</v>
       </c>
     </row>
     <row r="2">
@@ -1638,10 +1638,10 @@
         <v/>
       </c>
       <c r="K17" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L17" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="18">
@@ -1676,10 +1676,10 @@
         <v/>
       </c>
       <c r="K18" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L18" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="19">
@@ -1790,10 +1790,10 @@
         <v>x</v>
       </c>
       <c r="K21" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L21" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="22">
@@ -1828,10 +1828,10 @@
         <v>x</v>
       </c>
       <c r="K22" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L22" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="23">
@@ -1866,10 +1866,10 @@
         <v/>
       </c>
       <c r="K23" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L23" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="24">
@@ -1904,10 +1904,10 @@
         <v/>
       </c>
       <c r="K24" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L24" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="25">
@@ -1942,10 +1942,10 @@
         <v/>
       </c>
       <c r="K25" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L25" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="26">
@@ -1980,10 +1980,10 @@
         <v/>
       </c>
       <c r="K26" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L26" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="27">
@@ -2088,10 +2088,10 @@
         <v/>
       </c>
       <c r="I29" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J29" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K29" t="str">
         <v/>
@@ -2126,10 +2126,10 @@
         <v/>
       </c>
       <c r="I30" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J30" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K30" t="str">
         <v/>
@@ -2170,10 +2170,10 @@
         <v/>
       </c>
       <c r="K31" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L31" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="32">
@@ -2208,10 +2208,10 @@
         <v/>
       </c>
       <c r="K32" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L32" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="33">
@@ -2240,10 +2240,10 @@
         <v/>
       </c>
       <c r="I33" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J33" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K33" t="str">
         <v/>
@@ -2278,10 +2278,10 @@
         <v/>
       </c>
       <c r="I34" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J34" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K34" t="str">
         <v/>
@@ -2322,10 +2322,10 @@
         <v/>
       </c>
       <c r="K35" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L35" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="36">
@@ -2360,10 +2360,10 @@
         <v/>
       </c>
       <c r="K36" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L36" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="37">
@@ -2468,10 +2468,10 @@
         <v/>
       </c>
       <c r="I39" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J39" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K39" t="str">
         <v/>
@@ -2599,7 +2599,7 @@
         <v>n/a</v>
       </c>
       <c r="B43" t="str">
-        <v/>
+        <v>Voor onderstaande zaken zijn de hieronder vermelde bedragen standaard meeverzekerd. Als u voor een hoger</v>
       </c>
       <c r="C43" t="str">
         <v/>
@@ -2626,10 +2626,10 @@
         <v/>
       </c>
       <c r="K43" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L43" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="44">
@@ -2713,7 +2713,7 @@
         <v>n/a</v>
       </c>
       <c r="B46" t="str">
-        <v/>
+        <v>bedrag heeft gekozen, dan staat dit onder "verzekerde rubrieken".</v>
       </c>
       <c r="C46" t="str">
         <v/>
@@ -2740,10 +2740,10 @@
         <v/>
       </c>
       <c r="K46" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L46" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="47">
@@ -2854,10 +2854,10 @@
         <v/>
       </c>
       <c r="K49" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L49" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="50">
@@ -2968,10 +2968,10 @@
         <v/>
       </c>
       <c r="K52" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L52" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="53">
@@ -3006,10 +3006,10 @@
         <v/>
       </c>
       <c r="K53" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L53" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="54">
@@ -3082,10 +3082,10 @@
         <v/>
       </c>
       <c r="K55" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L55" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
   </sheetData>
@@ -3131,16 +3131,16 @@
         <v>P353</v>
       </c>
       <c r="J1" t="str">
+        <v>P357</v>
+      </c>
+      <c r="K1" t="str">
+        <v>P376</v>
+      </c>
+      <c r="L1" t="str">
         <v>P368</v>
       </c>
-      <c r="K1" t="str">
-        <v>P357</v>
-      </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>P375</v>
-      </c>
-      <c r="M1" t="str">
-        <v>P376</v>
       </c>
       <c r="N1" t="str">
         <v>P382</v>
@@ -3287,10 +3287,10 @@
         <v>x</v>
       </c>
       <c r="L4" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M4" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N4" t="str">
         <v>x</v>
@@ -3337,10 +3337,10 @@
         <v>x</v>
       </c>
       <c r="L5" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M5" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N5" t="str">
         <v>x</v>
@@ -3387,10 +3387,10 @@
         <v>x</v>
       </c>
       <c r="L6" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M6" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N6" t="str">
         <v>x</v>
@@ -3437,10 +3437,10 @@
         <v>x</v>
       </c>
       <c r="L7" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M7" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N7" t="str">
         <v>x</v>
@@ -3487,7 +3487,7 @@
         <v/>
       </c>
       <c r="L8" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M8" t="str">
         <v>x</v>
@@ -3537,7 +3537,7 @@
         <v/>
       </c>
       <c r="L9" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M9" t="str">
         <v>x</v>
@@ -3587,7 +3587,7 @@
         <v/>
       </c>
       <c r="L10" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M10" t="str">
         <v>x</v>
@@ -3637,7 +3637,7 @@
         <v/>
       </c>
       <c r="L11" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M11" t="str">
         <v>x</v>
@@ -3687,7 +3687,7 @@
         <v/>
       </c>
       <c r="L12" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M12" t="str">
         <v>x</v>
@@ -3737,10 +3737,10 @@
         <v>x</v>
       </c>
       <c r="L13" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M13" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N13" t="str">
         <v>x</v>
@@ -3787,10 +3787,10 @@
         <v>x</v>
       </c>
       <c r="L14" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M14" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N14" t="str">
         <v>x</v>
@@ -3837,10 +3837,10 @@
         <v>x</v>
       </c>
       <c r="L15" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M15" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N15" t="str">
         <v>x</v>
@@ -3887,10 +3887,10 @@
         <v/>
       </c>
       <c r="L16" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M16" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N16" t="str">
         <v/>
@@ -3937,10 +3937,10 @@
         <v/>
       </c>
       <c r="L17" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M17" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N17" t="str">
         <v/>
@@ -3987,10 +3987,10 @@
         <v/>
       </c>
       <c r="L18" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M18" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N18" t="str">
         <v/>
@@ -4037,10 +4037,10 @@
         <v/>
       </c>
       <c r="L19" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M19" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N19" t="str">
         <v/>
@@ -4981,13 +4981,13 @@
         <v/>
       </c>
       <c r="J38" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K38" t="str">
         <v/>
       </c>
       <c r="L38" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M38" t="str">
         <v/>
@@ -5031,13 +5031,13 @@
         <v/>
       </c>
       <c r="J39" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K39" t="str">
         <v/>
       </c>
       <c r="L39" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M39" t="str">
         <v/>
@@ -5084,10 +5084,10 @@
         <v/>
       </c>
       <c r="K40" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L40" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M40" t="str">
         <v>x</v>
@@ -5134,10 +5134,10 @@
         <v/>
       </c>
       <c r="K41" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L41" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M41" t="str">
         <v>x</v>
@@ -5184,10 +5184,10 @@
         <v/>
       </c>
       <c r="K42" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L42" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M42" t="str">
         <v>x</v>
@@ -5234,10 +5234,10 @@
         <v/>
       </c>
       <c r="K43" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L43" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M43" t="str">
         <v>x</v>
@@ -5331,13 +5331,13 @@
         <v/>
       </c>
       <c r="J45" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K45" t="str">
         <v/>
       </c>
       <c r="L45" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M45" t="str">
         <v/>
@@ -5381,13 +5381,13 @@
         <v/>
       </c>
       <c r="J46" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K46" t="str">
         <v>x</v>
       </c>
       <c r="L46" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M46" t="str">
         <v>x</v>
@@ -5431,13 +5431,13 @@
         <v/>
       </c>
       <c r="J47" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K47" t="str">
         <v>x</v>
       </c>
       <c r="L47" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M47" t="str">
         <v>x</v>
@@ -5884,13 +5884,13 @@
         <v/>
       </c>
       <c r="K56" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L56" t="str">
         <v/>
       </c>
       <c r="M56" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N56" t="str">
         <v/>
@@ -5934,13 +5934,13 @@
         <v/>
       </c>
       <c r="K57" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L57" t="str">
         <v/>
       </c>
       <c r="M57" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N57" t="str">
         <v/>
@@ -5987,10 +5987,10 @@
         <v/>
       </c>
       <c r="L58" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M58" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N58" t="str">
         <v/>
@@ -6037,10 +6037,10 @@
         <v/>
       </c>
       <c r="L59" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M59" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N59" t="str">
         <v/>
@@ -7711,10 +7711,10 @@
         <v>regel template</v>
       </c>
       <c r="G1" t="str">
+        <v>05509</v>
+      </c>
+      <c r="H1" t="str">
         <v>05050</v>
-      </c>
-      <c r="H1" t="str">
-        <v>05509</v>
       </c>
       <c r="I1" t="str">
         <v>05510</v>
@@ -7807,10 +7807,10 @@
         <v>03 Risico adres              10708 10710 10711</v>
       </c>
       <c r="G4" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H4" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I4" t="str">
         <v>x</v>
@@ -7839,10 +7839,10 @@
         <v/>
       </c>
       <c r="G5" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H5" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I5" t="str">
         <v>x</v>
@@ -7871,10 +7871,10 @@
         <v/>
       </c>
       <c r="G6" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H6" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I6" t="str">
         <v>x</v>
@@ -7903,10 +7903,10 @@
         <v/>
       </c>
       <c r="G7" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H7" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I7" t="str">
         <v>x</v>
@@ -7935,10 +7935,10 @@
         <v>04                           10032 10709</v>
       </c>
       <c r="G8" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H8" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I8" t="str">
         <v>x</v>
@@ -7967,10 +7967,10 @@
         <v/>
       </c>
       <c r="G9" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H9" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I9" t="str">
         <v>x</v>
@@ -7999,10 +7999,10 @@
         <v/>
       </c>
       <c r="G10" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H10" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I10" t="str">
         <v>x</v>
@@ -8013,10 +8013,10 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Verzekerde rubrieken</v>
+        <v>Soort object</v>
       </c>
       <c r="B11" t="str">
-        <v xml:space="preserve">                 Verzekerd bedrag</v>
+        <v>10262</v>
       </c>
       <c r="C11" t="str">
         <v/>
@@ -8028,45 +8028,45 @@
         <v/>
       </c>
       <c r="F11" t="str">
-        <v>04 Verzekerde rubrieken                              Verzekerd bedrag</v>
+        <v>05 Soort object              10262</v>
       </c>
       <c r="G11" t="str">
         <v>x</v>
       </c>
       <c r="H11" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I11" t="str">
         <v>x</v>
       </c>
       <c r="J11" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Soort object</v>
+        <v/>
       </c>
       <c r="B12" t="str">
         <v>10262</v>
       </c>
       <c r="C12" t="str">
-        <v/>
+        <v>Omschrijving</v>
       </c>
       <c r="D12" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E12" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F12" t="str">
-        <v>05 Soort object              10262</v>
+        <v/>
       </c>
       <c r="G12" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H12" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I12" t="str">
         <v>x</v>
@@ -8077,28 +8077,28 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v/>
+        <v>Bestemming</v>
       </c>
       <c r="B13" t="str">
-        <v>10262</v>
+        <v>10081</v>
       </c>
       <c r="C13" t="str">
-        <v>Omschrijving</v>
+        <v/>
       </c>
       <c r="D13" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E13" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F13" t="str">
-        <v/>
+        <v>06 Bestemming                10081</v>
       </c>
       <c r="G13" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H13" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I13" t="str">
         <v>x</v>
@@ -8109,28 +8109,28 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Bestemming</v>
+        <v/>
       </c>
       <c r="B14" t="str">
         <v>10081</v>
       </c>
       <c r="C14" t="str">
-        <v/>
+        <v>Omschrijving</v>
       </c>
       <c r="D14" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E14" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F14" t="str">
-        <v>06 Bestemming                10081</v>
+        <v/>
       </c>
       <c r="G14" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H14" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I14" t="str">
         <v>x</v>
@@ -8141,54 +8141,54 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v/>
+        <v>Bouwaard bak</v>
       </c>
       <c r="B15" t="str">
-        <v>10081</v>
+        <v>86548</v>
       </c>
       <c r="C15" t="str">
-        <v>Omschrijving</v>
+        <v/>
       </c>
       <c r="D15" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E15" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F15" t="str">
-        <v/>
+        <v>07 Bouwaard bak              86548</v>
       </c>
       <c r="G15" t="str">
         <v/>
       </c>
       <c r="H15" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I15" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J15" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Bouwaard bak</v>
+        <v/>
       </c>
       <c r="B16" t="str">
         <v>86548</v>
       </c>
       <c r="C16" t="str">
-        <v/>
+        <v>Omschrijving</v>
       </c>
       <c r="D16" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E16" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F16" t="str">
-        <v>07 Bouwaard bak              86548</v>
+        <v/>
       </c>
       <c r="G16" t="str">
         <v/>
@@ -8205,31 +8205,31 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v/>
+        <v>Bouwaard muren</v>
       </c>
       <c r="B17" t="str">
-        <v>86548</v>
+        <v>10686</v>
       </c>
       <c r="C17" t="str">
-        <v>Omschrijving</v>
+        <v/>
       </c>
       <c r="D17" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E17" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F17" t="str">
-        <v/>
+        <v>07 Bouwaard muren            10686</v>
       </c>
       <c r="G17" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H17" t="str">
         <v/>
       </c>
       <c r="I17" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J17" t="str">
         <v>x</v>
@@ -8237,28 +8237,28 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Bouwaard muren</v>
+        <v/>
       </c>
       <c r="B18" t="str">
         <v>10686</v>
       </c>
       <c r="C18" t="str">
-        <v/>
+        <v>Omschrijving</v>
       </c>
       <c r="D18" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E18" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F18" t="str">
-        <v>07 Bouwaard muren            10686</v>
+        <v/>
       </c>
       <c r="G18" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H18" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I18" t="str">
         <v>x</v>
@@ -8269,28 +8269,28 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v/>
+        <v>Bouwaard dak</v>
       </c>
       <c r="B19" t="str">
-        <v>10686</v>
+        <v>10685</v>
       </c>
       <c r="C19" t="str">
-        <v>Omschrijving</v>
+        <v/>
       </c>
       <c r="D19" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E19" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F19" t="str">
-        <v/>
+        <v>08 Bouwaard dak              10685</v>
       </c>
       <c r="G19" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H19" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I19" t="str">
         <v>x</v>
@@ -8301,28 +8301,28 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Bouwaard dak</v>
+        <v/>
       </c>
       <c r="B20" t="str">
         <v>10685</v>
       </c>
       <c r="C20" t="str">
-        <v/>
+        <v>Omschrijving</v>
       </c>
       <c r="D20" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E20" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F20" t="str">
-        <v>08 Bouwaard dak              10685</v>
+        <v/>
       </c>
       <c r="G20" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H20" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I20" t="str">
         <v>x</v>
@@ -8333,31 +8333,31 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v/>
+        <v>Eigen risico</v>
       </c>
       <c r="B21" t="str">
-        <v>10685</v>
+        <v>€ 10043 10044</v>
       </c>
       <c r="C21" t="str">
-        <v>Omschrijving</v>
+        <v/>
       </c>
       <c r="D21" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E21" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F21" t="str">
-        <v/>
+        <v>08 Eigen risico              € 10043 10044</v>
       </c>
       <c r="G21" t="str">
         <v/>
       </c>
       <c r="H21" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I21" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J21" t="str">
         <v>x</v>
@@ -8365,22 +8365,22 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Eigen risico</v>
+        <v/>
       </c>
       <c r="B22" t="str">
-        <v>€ 10043 10044</v>
+        <v>10043</v>
       </c>
       <c r="C22" t="str">
-        <v/>
+        <v>Getal inclusief decimalen</v>
       </c>
       <c r="D22" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E22" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F22" t="str">
-        <v>08 Eigen risico              € 10043 10044</v>
+        <v/>
       </c>
       <c r="G22" t="str">
         <v/>
@@ -8400,16 +8400,16 @@
         <v/>
       </c>
       <c r="B23" t="str">
-        <v>10043</v>
+        <v>10044</v>
       </c>
       <c r="C23" t="str">
-        <v>Getal inclusief decimalen</v>
+        <v>Omschrijving</v>
       </c>
       <c r="D23" t="str">
         <v>Links</v>
       </c>
       <c r="E23" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F23" t="str">
         <v/>
@@ -8429,60 +8429,60 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v/>
+        <v>Bouwaard vloeren</v>
       </c>
       <c r="B24" t="str">
-        <v>10044</v>
+        <v>10684</v>
       </c>
       <c r="C24" t="str">
-        <v>Omschrijving</v>
+        <v/>
       </c>
       <c r="D24" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E24" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F24" t="str">
-        <v/>
+        <v>09 Bouwaard vloeren          10684</v>
       </c>
       <c r="G24" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H24" t="str">
         <v/>
       </c>
       <c r="I24" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J24" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Bouwaard vloeren</v>
+        <v/>
       </c>
       <c r="B25" t="str">
         <v>10684</v>
       </c>
       <c r="C25" t="str">
-        <v/>
+        <v>Omschrijving</v>
       </c>
       <c r="D25" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E25" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F25" t="str">
-        <v>09 Bouwaard vloeren          10684</v>
+        <v/>
       </c>
       <c r="G25" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H25" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I25" t="str">
         <v>x</v>
@@ -8493,28 +8493,28 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v/>
+        <v>Eigen risico</v>
       </c>
       <c r="B26" t="str">
-        <v>10684</v>
+        <v>€ 10043 Vrijwillig</v>
       </c>
       <c r="C26" t="str">
-        <v>Omschrijving</v>
+        <v/>
       </c>
       <c r="D26" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E26" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F26" t="str">
-        <v/>
+        <v>10 Eigen risico              € 10043 Vrijwillig</v>
       </c>
       <c r="G26" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H26" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I26" t="str">
         <v>x</v>
@@ -8525,28 +8525,28 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Eigen risico</v>
+        <v/>
       </c>
       <c r="B27" t="str">
-        <v>€ 10043 Vrijwillig</v>
+        <v>10043</v>
       </c>
       <c r="C27" t="str">
-        <v/>
+        <v>Getal inclusief decimalen</v>
       </c>
       <c r="D27" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E27" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F27" t="str">
-        <v>10 Eigen risico              € 10043 Vrijwillig</v>
+        <v/>
       </c>
       <c r="G27" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H27" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I27" t="str">
         <v>x</v>
@@ -8557,25 +8557,25 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v/>
+        <v>Verzekerde rubrieken</v>
       </c>
       <c r="B28" t="str">
-        <v>10043</v>
+        <v xml:space="preserve">                 Verzekerd bedrag</v>
       </c>
       <c r="C28" t="str">
-        <v>Getal inclusief decimalen</v>
+        <v/>
       </c>
       <c r="D28" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E28" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F28" t="str">
-        <v/>
+        <v>12 Verzekerde rubrieken                              Verzekerd bedrag</v>
       </c>
       <c r="G28" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H28" t="str">
         <v>x</v>
@@ -8584,7 +8584,7 @@
         <v>x</v>
       </c>
       <c r="J28" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
   </sheetData>
@@ -8621,10 +8621,10 @@
         <v>regel template</v>
       </c>
       <c r="G1" t="str">
+        <v>P311</v>
+      </c>
+      <c r="H1" t="str">
         <v>P302</v>
-      </c>
-      <c r="H1" t="str">
-        <v>P311</v>
       </c>
       <c r="I1" t="str">
         <v>P352</v>
@@ -8633,19 +8633,19 @@
         <v>P353</v>
       </c>
       <c r="K1" t="str">
+        <v>P368</v>
+      </c>
+      <c r="L1" t="str">
         <v>P375</v>
       </c>
-      <c r="L1" t="str">
-        <v>P368</v>
-      </c>
       <c r="M1" t="str">
+        <v>P376</v>
+      </c>
+      <c r="N1" t="str">
+        <v>P383</v>
+      </c>
+      <c r="O1" t="str">
         <v>P382</v>
-      </c>
-      <c r="N1" t="str">
-        <v>P376</v>
-      </c>
-      <c r="O1" t="str">
-        <v>P383</v>
       </c>
     </row>
     <row r="2">
@@ -9261,10 +9261,10 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Soort verhuur</v>
+        <v>Bouwaard muren</v>
       </c>
       <c r="B15" t="str">
-        <v>11305</v>
+        <v>10686</v>
       </c>
       <c r="C15" t="str">
         <v/>
@@ -9276,34 +9276,34 @@
         <v/>
       </c>
       <c r="F15" t="str">
-        <v>07 Soort verhuur             11305</v>
+        <v>07 Bouwaard muren            10686</v>
       </c>
       <c r="G15" t="str">
         <v>x</v>
       </c>
       <c r="H15" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I15" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J15" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K15" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L15" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M15" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N15" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O15" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="16">
@@ -9311,7 +9311,7 @@
         <v/>
       </c>
       <c r="B16" t="str">
-        <v>11305</v>
+        <v>10686</v>
       </c>
       <c r="C16" t="str">
         <v>Omschrijving</v>
@@ -9329,36 +9329,36 @@
         <v>x</v>
       </c>
       <c r="H16" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I16" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J16" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K16" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L16" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M16" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N16" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O16" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Tijdelijke verhuur woonhuis</v>
+        <v>Soort verhuur</v>
       </c>
       <c r="B17" t="str">
-        <v>11674</v>
+        <v>11305</v>
       </c>
       <c r="C17" t="str">
         <v/>
@@ -9370,16 +9370,16 @@
         <v/>
       </c>
       <c r="F17" t="str">
-        <v>07 Tijdelijke verhuur woonhuis 11674</v>
+        <v>07 Soort verhuur             11305</v>
       </c>
       <c r="G17" t="str">
         <v/>
       </c>
       <c r="H17" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I17" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J17" t="str">
         <v/>
@@ -9405,10 +9405,10 @@
         <v/>
       </c>
       <c r="B18" t="str">
-        <v>11674</v>
+        <v>11305</v>
       </c>
       <c r="C18" t="str">
-        <v/>
+        <v>Omschrijving</v>
       </c>
       <c r="D18" t="str">
         <v>Links</v>
@@ -9423,10 +9423,10 @@
         <v/>
       </c>
       <c r="H18" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I18" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J18" t="str">
         <v/>
@@ -9449,10 +9449,10 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Waardegarantie</v>
+        <v>Tijdelijke verhuur woonhuis</v>
       </c>
       <c r="B19" t="str">
-        <v>Garantie tegen onderverzekering is van toepassing vanaf 13287</v>
+        <v>11674</v>
       </c>
       <c r="C19" t="str">
         <v/>
@@ -9464,7 +9464,7 @@
         <v/>
       </c>
       <c r="F19" t="str">
-        <v>07 Waardegarantie            Garantie tegen onderverzekering is van toepassing vanaf 13287</v>
+        <v>07 Tijdelijke verhuur woonhuis 11674</v>
       </c>
       <c r="G19" t="str">
         <v/>
@@ -9473,7 +9473,7 @@
         <v/>
       </c>
       <c r="I19" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J19" t="str">
         <v/>
@@ -9488,7 +9488,7 @@
         <v/>
       </c>
       <c r="N19" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O19" t="str">
         <v/>
@@ -9499,10 +9499,10 @@
         <v/>
       </c>
       <c r="B20" t="str">
-        <v>13287</v>
+        <v>11674</v>
       </c>
       <c r="C20" t="str">
-        <v>Datum (DD-MM-EEJJ)</v>
+        <v/>
       </c>
       <c r="D20" t="str">
         <v>Links</v>
@@ -9520,7 +9520,7 @@
         <v/>
       </c>
       <c r="I20" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J20" t="str">
         <v/>
@@ -9535,7 +9535,7 @@
         <v/>
       </c>
       <c r="N20" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O20" t="str">
         <v/>
@@ -9543,10 +9543,10 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Bouwaard muren</v>
+        <v>Waardegarantie</v>
       </c>
       <c r="B21" t="str">
-        <v>10686</v>
+        <v>Garantie tegen onderverzekering is van toepassing vanaf 13287</v>
       </c>
       <c r="C21" t="str">
         <v/>
@@ -9558,34 +9558,34 @@
         <v/>
       </c>
       <c r="F21" t="str">
-        <v>08 Bouwaard muren            10686</v>
+        <v>07 Waardegarantie            Garantie tegen onderverzekering is van toepassing vanaf 13287</v>
       </c>
       <c r="G21" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H21" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I21" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J21" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K21" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L21" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M21" t="str">
         <v>x</v>
       </c>
       <c r="N21" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O21" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="22">
@@ -9593,10 +9593,10 @@
         <v/>
       </c>
       <c r="B22" t="str">
-        <v>10686</v>
+        <v>13287</v>
       </c>
       <c r="C22" t="str">
-        <v>Omschrijving</v>
+        <v>Datum (DD-MM-EEJJ)</v>
       </c>
       <c r="D22" t="str">
         <v>Links</v>
@@ -9608,31 +9608,31 @@
         <v/>
       </c>
       <c r="G22" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H22" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I22" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J22" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K22" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L22" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M22" t="str">
         <v>x</v>
       </c>
       <c r="N22" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O22" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="23">
@@ -9652,7 +9652,7 @@
         <v/>
       </c>
       <c r="F23" t="str">
-        <v>09 Bouwaard dak              10685</v>
+        <v>08 Bouwaard dak              10685</v>
       </c>
       <c r="G23" t="str">
         <v>x</v>
@@ -9731,10 +9731,10 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Soort rieten dak</v>
+        <v>Bouwaard vloeren</v>
       </c>
       <c r="B25" t="str">
-        <v>12643</v>
+        <v>10684</v>
       </c>
       <c r="C25" t="str">
         <v/>
@@ -9746,34 +9746,34 @@
         <v/>
       </c>
       <c r="F25" t="str">
-        <v>09 Soort rieten dak          12643</v>
+        <v>09 Bouwaard vloeren          10684</v>
       </c>
       <c r="G25" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H25" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I25" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J25" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K25" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L25" t="str">
         <v>x</v>
       </c>
       <c r="M25" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N25" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O25" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="26">
@@ -9781,7 +9781,7 @@
         <v/>
       </c>
       <c r="B26" t="str">
-        <v>12643</v>
+        <v>10684</v>
       </c>
       <c r="C26" t="str">
         <v>Omschrijving</v>
@@ -9796,39 +9796,39 @@
         <v/>
       </c>
       <c r="G26" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H26" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I26" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J26" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K26" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L26" t="str">
         <v>x</v>
       </c>
       <c r="M26" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N26" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O26" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Bouwaard vloeren</v>
+        <v>Soort rieten dak</v>
       </c>
       <c r="B27" t="str">
-        <v>10684</v>
+        <v>12643</v>
       </c>
       <c r="C27" t="str">
         <v/>
@@ -9840,34 +9840,34 @@
         <v/>
       </c>
       <c r="F27" t="str">
-        <v>10 Bouwaard vloeren          10684</v>
+        <v>09 Soort rieten dak          12643</v>
       </c>
       <c r="G27" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H27" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I27" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J27" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K27" t="str">
         <v>x</v>
       </c>
       <c r="L27" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M27" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N27" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O27" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="28">
@@ -9875,7 +9875,7 @@
         <v/>
       </c>
       <c r="B28" t="str">
-        <v>10684</v>
+        <v>12643</v>
       </c>
       <c r="C28" t="str">
         <v>Omschrijving</v>
@@ -9890,31 +9890,31 @@
         <v/>
       </c>
       <c r="G28" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H28" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I28" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J28" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K28" t="str">
         <v>x</v>
       </c>
       <c r="L28" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M28" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N28" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O28" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="29">
@@ -9949,10 +9949,10 @@
         <v/>
       </c>
       <c r="K29" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L29" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M29" t="str">
         <v/>
@@ -9996,10 +9996,10 @@
         <v/>
       </c>
       <c r="K30" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L30" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M30" t="str">
         <v/>
@@ -10031,10 +10031,10 @@
         <v>10 Eigen risico              € 10043</v>
       </c>
       <c r="G31" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H31" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I31" t="str">
         <v/>
@@ -10049,10 +10049,10 @@
         <v/>
       </c>
       <c r="M31" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N31" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O31" t="str">
         <v/>
@@ -10078,10 +10078,10 @@
         <v/>
       </c>
       <c r="G32" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H32" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I32" t="str">
         <v/>
@@ -10096,10 +10096,10 @@
         <v/>
       </c>
       <c r="M32" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N32" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O32" t="str">
         <v/>
@@ -10137,10 +10137,10 @@
         <v/>
       </c>
       <c r="K33" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L33" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M33" t="str">
         <v/>
@@ -10184,10 +10184,10 @@
         <v/>
       </c>
       <c r="K34" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L34" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M34" t="str">
         <v/>
@@ -10419,10 +10419,10 @@
         <v/>
       </c>
       <c r="K39" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L39" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M39" t="str">
         <v/>
@@ -10466,10 +10466,10 @@
         <v/>
       </c>
       <c r="K40" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L40" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M40" t="str">
         <v/>
@@ -10501,10 +10501,10 @@
         <v>11 Zonnepanelen              13520</v>
       </c>
       <c r="G41" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H41" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I41" t="str">
         <v/>
@@ -10522,10 +10522,10 @@
         <v/>
       </c>
       <c r="N41" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O41" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="42">
@@ -10548,10 +10548,10 @@
         <v/>
       </c>
       <c r="G42" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H42" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I42" t="str">
         <v/>
@@ -10569,10 +10569,10 @@
         <v/>
       </c>
       <c r="N42" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O42" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="43">
@@ -10595,10 +10595,10 @@
         <v>12 Bouwjaar                  10034</v>
       </c>
       <c r="G43" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H43" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I43" t="str">
         <v/>
@@ -10642,10 +10642,10 @@
         <v/>
       </c>
       <c r="G44" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H44" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I44" t="str">
         <v/>
@@ -10707,10 +10707,10 @@
         <v/>
       </c>
       <c r="M45" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N45" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O45" t="str">
         <v/>
@@ -10754,10 +10754,10 @@
         <v/>
       </c>
       <c r="M46" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N46" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O46" t="str">
         <v/>
@@ -10795,10 +10795,10 @@
         <v/>
       </c>
       <c r="K47" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L47" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M47" t="str">
         <v/>
@@ -10842,10 +10842,10 @@
         <v/>
       </c>
       <c r="K48" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L48" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M48" t="str">
         <v/>
@@ -11094,10 +11094,10 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Waardegarantie</v>
+        <v>Verzekerde rubrieken</v>
       </c>
       <c r="B54" t="str">
-        <v>Garantie tegen onderverzekering is van toepassing met ingang van 11780</v>
+        <v xml:space="preserve">                 Verzekerd bedrag</v>
       </c>
       <c r="C54" t="str">
         <v/>
@@ -11109,54 +11109,54 @@
         <v/>
       </c>
       <c r="F54" t="str">
-        <v>12 Waardegarantie            Garantie tegen onderverzekering is van toepassing met ingang van 11780</v>
+        <v>12 Verzekerde rubrieken                              Verzekerd bedrag</v>
       </c>
       <c r="G54" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H54" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I54" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J54" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K54" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L54" t="str">
         <v>x</v>
       </c>
       <c r="M54" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N54" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O54" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v/>
+        <v>Waardegarantie</v>
       </c>
       <c r="B55" t="str">
-        <v>11780</v>
+        <v>Garantie tegen onderverzekering is van toepassing met ingang van 11780</v>
       </c>
       <c r="C55" t="str">
-        <v>Datum (DD-MM-EEJJ)</v>
+        <v/>
       </c>
       <c r="D55" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E55" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F55" t="str">
-        <v/>
+        <v>12 Waardegarantie            Garantie tegen onderverzekering is van toepassing met ingang van 11780</v>
       </c>
       <c r="G55" t="str">
         <v/>
@@ -11171,10 +11171,10 @@
         <v/>
       </c>
       <c r="K55" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L55" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M55" t="str">
         <v/>
@@ -11188,22 +11188,22 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Eigen risico</v>
+        <v/>
       </c>
       <c r="B56" t="str">
-        <v>zie voorwaarden</v>
+        <v>11780</v>
       </c>
       <c r="C56" t="str">
-        <v/>
+        <v>Datum (DD-MM-EEJJ)</v>
       </c>
       <c r="D56" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E56" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F56" t="str">
-        <v>13 Eigen risico              zie voorwaarden</v>
+        <v/>
       </c>
       <c r="G56" t="str">
         <v/>
@@ -11218,10 +11218,10 @@
         <v/>
       </c>
       <c r="K56" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L56" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M56" t="str">
         <v/>
@@ -11238,7 +11238,7 @@
         <v>Eigen risico</v>
       </c>
       <c r="B57" t="str">
-        <v>€ 10043 per gebeurtenis</v>
+        <v>zie voorwaarden</v>
       </c>
       <c r="C57" t="str">
         <v/>
@@ -11250,7 +11250,7 @@
         <v/>
       </c>
       <c r="F57" t="str">
-        <v>13 Eigen risico              € 10043 per gebeurtenis</v>
+        <v>13 Eigen risico              zie voorwaarden</v>
       </c>
       <c r="G57" t="str">
         <v/>
@@ -11259,13 +11259,13 @@
         <v/>
       </c>
       <c r="I57" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J57" t="str">
         <v/>
       </c>
       <c r="K57" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L57" t="str">
         <v/>
@@ -11282,22 +11282,22 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v/>
+        <v>Eigen risico</v>
       </c>
       <c r="B58" t="str">
-        <v>10043</v>
+        <v>€ 10043 per gebeurtenis</v>
       </c>
       <c r="C58" t="str">
-        <v>Getal inclusief decimalen</v>
+        <v/>
       </c>
       <c r="D58" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E58" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F58" t="str">
-        <v/>
+        <v>13 Eigen risico              € 10043 per gebeurtenis</v>
       </c>
       <c r="G58" t="str">
         <v/>
@@ -11329,31 +11329,31 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Oppervlakte woning in m2</v>
+        <v/>
       </c>
       <c r="B59" t="str">
-        <v>12380</v>
+        <v>10043</v>
       </c>
       <c r="C59" t="str">
-        <v/>
+        <v>Getal inclusief decimalen</v>
       </c>
       <c r="D59" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E59" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F59" t="str">
-        <v>13 Oppervlakte woning in m2  12380</v>
+        <v/>
       </c>
       <c r="G59" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H59" t="str">
         <v/>
       </c>
       <c r="I59" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J59" t="str">
         <v/>
@@ -11376,28 +11376,28 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v/>
+        <v>Oppervlakte woning in m2</v>
       </c>
       <c r="B60" t="str">
         <v>12380</v>
       </c>
       <c r="C60" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v/>
       </c>
       <c r="D60" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E60" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F60" t="str">
-        <v/>
+        <v>13 Oppervlakte woning in m2  12380</v>
       </c>
       <c r="G60" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H60" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I60" t="str">
         <v/>
@@ -11423,28 +11423,28 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Waardegarantie</v>
+        <v/>
       </c>
       <c r="B61" t="str">
-        <v>Garantie tegen onderverzekering is van toepassing met ingang van 13287</v>
+        <v>12380</v>
       </c>
       <c r="C61" t="str">
-        <v/>
+        <v>Getal exclusief decimalen</v>
       </c>
       <c r="D61" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E61" t="str">
-        <v/>
+        <v>niet verwijderen</v>
       </c>
       <c r="F61" t="str">
-        <v>13 Waardegarantie            Garantie tegen onderverzekering is van toepassing met ingang van 13287</v>
+        <v/>
       </c>
       <c r="G61" t="str">
         <v/>
       </c>
       <c r="H61" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I61" t="str">
         <v/>
@@ -11453,7 +11453,7 @@
         <v/>
       </c>
       <c r="K61" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L61" t="str">
         <v/>
@@ -11470,22 +11470,22 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v/>
+        <v>Waardegarantie</v>
       </c>
       <c r="B62" t="str">
-        <v>13287</v>
+        <v>Garantie tegen onderverzekering is van toepassing met ingang van 13287</v>
       </c>
       <c r="C62" t="str">
-        <v>Datum (DD-MM-EEJJ)</v>
+        <v/>
       </c>
       <c r="D62" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E62" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F62" t="str">
-        <v/>
+        <v>13 Waardegarantie            Garantie tegen onderverzekering is van toepassing met ingang van 13287</v>
       </c>
       <c r="G62" t="str">
         <v/>
@@ -11500,10 +11500,10 @@
         <v/>
       </c>
       <c r="K62" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L62" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M62" t="str">
         <v/>
@@ -11517,22 +11517,22 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>De waardegarantie is 10 jaar geldig</v>
+        <v/>
       </c>
       <c r="B63" t="str">
         <v>13287</v>
       </c>
       <c r="C63" t="str">
-        <v/>
+        <v>Datum (DD-MM-EEJJ)</v>
       </c>
       <c r="D63" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E63" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F63" t="str">
-        <v>14                           De waardegarantie is 10 jaar geldig                                     13287</v>
+        <v/>
       </c>
       <c r="G63" t="str">
         <v/>
@@ -11547,16 +11547,16 @@
         <v/>
       </c>
       <c r="K63" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L63" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M63" t="str">
         <v/>
       </c>
       <c r="N63" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O63" t="str">
         <v/>
@@ -11564,22 +11564,22 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v/>
+        <v>De waardegarantie is 10 jaar geldig</v>
       </c>
       <c r="B64" t="str">
         <v>13287</v>
       </c>
       <c r="C64" t="str">
-        <v>Datum (DD-MM-EEJJ)</v>
+        <v/>
       </c>
       <c r="D64" t="str">
-        <v>Rechts</v>
+        <v/>
       </c>
       <c r="E64" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F64" t="str">
-        <v/>
+        <v>14                           De waardegarantie is 10 jaar geldig                                     13287</v>
       </c>
       <c r="G64" t="str">
         <v/>
@@ -11594,16 +11594,16 @@
         <v/>
       </c>
       <c r="K64" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L64" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M64" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N64" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O64" t="str">
         <v/>
@@ -11611,22 +11611,22 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Eigen risico storm</v>
+        <v/>
       </c>
       <c r="B65" t="str">
-        <v>€ 13298 per gebeurtenis</v>
+        <v>13287</v>
       </c>
       <c r="C65" t="str">
-        <v/>
+        <v>Datum (DD-MM-EEJJ)</v>
       </c>
       <c r="D65" t="str">
-        <v/>
+        <v>Rechts</v>
       </c>
       <c r="E65" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F65" t="str">
-        <v>14 Eigen risico storm        € 13298 per gebeurtenis</v>
+        <v/>
       </c>
       <c r="G65" t="str">
         <v/>
@@ -11635,19 +11635,19 @@
         <v/>
       </c>
       <c r="I65" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J65" t="str">
         <v/>
       </c>
       <c r="K65" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L65" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M65" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N65" t="str">
         <v/>
@@ -11658,22 +11658,22 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v/>
+        <v>Eigen risico storm</v>
       </c>
       <c r="B66" t="str">
-        <v>13298</v>
+        <v>€ 13298 per gebeurtenis</v>
       </c>
       <c r="C66" t="str">
-        <v>Getal inclusief decimalen</v>
+        <v/>
       </c>
       <c r="D66" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E66" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F66" t="str">
-        <v/>
+        <v>14 Eigen risico storm        € 13298 per gebeurtenis</v>
       </c>
       <c r="G66" t="str">
         <v/>
@@ -11688,10 +11688,10 @@
         <v/>
       </c>
       <c r="K66" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L66" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M66" t="str">
         <v/>
@@ -11705,31 +11705,31 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Oppervlakte bijgebouw</v>
+        <v/>
       </c>
       <c r="B67" t="str">
-        <v>13521</v>
+        <v>13298</v>
       </c>
       <c r="C67" t="str">
-        <v/>
+        <v>Getal inclusief decimalen</v>
       </c>
       <c r="D67" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E67" t="str">
-        <v/>
+        <v>niet verwijderen</v>
       </c>
       <c r="F67" t="str">
-        <v>14 Oppervlakte bijgebouw                                                                      13521</v>
+        <v/>
       </c>
       <c r="G67" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H67" t="str">
         <v/>
       </c>
       <c r="I67" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J67" t="str">
         <v/>
@@ -11738,7 +11738,7 @@
         <v/>
       </c>
       <c r="L67" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M67" t="str">
         <v/>
@@ -11752,28 +11752,28 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v/>
+        <v>Oppervlakte bijgebouw</v>
       </c>
       <c r="B68" t="str">
         <v>13521</v>
       </c>
       <c r="C68" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v/>
       </c>
       <c r="D68" t="str">
-        <v>Rechts</v>
+        <v/>
       </c>
       <c r="E68" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F68" t="str">
-        <v/>
+        <v>14 Oppervlakte bijgebouw                                                                      13521</v>
       </c>
       <c r="G68" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H68" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I68" t="str">
         <v/>
@@ -11799,34 +11799,34 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Risico adres garage</v>
+        <v/>
       </c>
       <c r="B69" t="str">
-        <v>11640</v>
+        <v>13521</v>
       </c>
       <c r="C69" t="str">
-        <v/>
+        <v>Getal exclusief decimalen</v>
       </c>
       <c r="D69" t="str">
-        <v/>
+        <v>Rechts</v>
       </c>
       <c r="E69" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F69" t="str">
-        <v>14 Risico adres garage                                                                               11640</v>
+        <v/>
       </c>
       <c r="G69" t="str">
         <v/>
       </c>
       <c r="H69" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I69" t="str">
         <v/>
       </c>
       <c r="J69" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K69" t="str">
         <v/>
@@ -11835,7 +11835,7 @@
         <v/>
       </c>
       <c r="M69" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N69" t="str">
         <v/>
@@ -11846,22 +11846,22 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v/>
+        <v>Risico adres garage</v>
       </c>
       <c r="B70" t="str">
         <v>11640</v>
       </c>
       <c r="C70" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v/>
       </c>
       <c r="D70" t="str">
-        <v>Rechts</v>
+        <v/>
       </c>
       <c r="E70" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F70" t="str">
-        <v/>
+        <v>14 Risico adres garage                                                                               11640</v>
       </c>
       <c r="G70" t="str">
         <v/>
@@ -11882,33 +11882,33 @@
         <v/>
       </c>
       <c r="M70" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N70" t="str">
         <v/>
       </c>
       <c r="O70" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>n/a</v>
+        <v/>
       </c>
       <c r="B71" t="str">
-        <v>Alarmnummer               088 - 577 11 11</v>
+        <v>11640</v>
       </c>
       <c r="C71" t="str">
-        <v/>
+        <v>Getal exclusief decimalen</v>
       </c>
       <c r="D71" t="str">
-        <v/>
+        <v>Rechts</v>
       </c>
       <c r="E71" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F71" t="str">
-        <v>15 Alarmnummer               088 - 577 11 11</v>
+        <v/>
       </c>
       <c r="G71" t="str">
         <v/>
@@ -11917,10 +11917,10 @@
         <v/>
       </c>
       <c r="I71" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J71" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K71" t="str">
         <v/>
@@ -11935,15 +11935,15 @@
         <v/>
       </c>
       <c r="O71" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Huisnummer/postcode</v>
+        <v>n/a</v>
       </c>
       <c r="B72" t="str">
-        <v>13551 / 13555</v>
+        <v>Alarmnummer               088 - 577 11 11</v>
       </c>
       <c r="C72" t="str">
         <v/>
@@ -11955,7 +11955,7 @@
         <v/>
       </c>
       <c r="F72" t="str">
-        <v>15 Huisnummer/postcode       13551 / 13555</v>
+        <v>15 Alarmnummer               088 - 577 11 11</v>
       </c>
       <c r="G72" t="str">
         <v/>
@@ -11964,10 +11964,10 @@
         <v/>
       </c>
       <c r="I72" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J72" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K72" t="str">
         <v/>
@@ -11976,7 +11976,7 @@
         <v/>
       </c>
       <c r="M72" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N72" t="str">
         <v/>
@@ -11987,22 +11987,22 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v/>
+        <v>Huisnummer/postcode</v>
       </c>
       <c r="B73" t="str">
-        <v>13551</v>
+        <v>13551 / 13555</v>
       </c>
       <c r="C73" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v/>
       </c>
       <c r="D73" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E73" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F73" t="str">
-        <v/>
+        <v>15 Huisnummer/postcode       13551 / 13555</v>
       </c>
       <c r="G73" t="str">
         <v/>
@@ -12023,13 +12023,13 @@
         <v/>
       </c>
       <c r="M73" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N73" t="str">
         <v/>
       </c>
       <c r="O73" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="74">
@@ -12037,10 +12037,10 @@
         <v/>
       </c>
       <c r="B74" t="str">
-        <v>13555</v>
+        <v>13551</v>
       </c>
       <c r="C74" t="str">
-        <v/>
+        <v>Getal exclusief decimalen</v>
       </c>
       <c r="D74" t="str">
         <v>Links</v>
@@ -12070,36 +12070,36 @@
         <v/>
       </c>
       <c r="M74" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N74" t="str">
         <v/>
       </c>
       <c r="O74" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>max. in m2</v>
+        <v/>
       </c>
       <c r="B75" t="str">
-        <v>13521</v>
+        <v>13555</v>
       </c>
       <c r="C75" t="str">
         <v/>
       </c>
       <c r="D75" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E75" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F75" t="str">
-        <v>15 max. in m2                13521</v>
+        <v/>
       </c>
       <c r="G75" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H75" t="str">
         <v/>
@@ -12108,7 +12108,7 @@
         <v/>
       </c>
       <c r="J75" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K75" t="str">
         <v/>
@@ -12123,33 +12123,33 @@
         <v/>
       </c>
       <c r="O75" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v/>
+        <v>max. in m2</v>
       </c>
       <c r="B76" t="str">
         <v>13521</v>
       </c>
       <c r="C76" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v/>
       </c>
       <c r="D76" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E76" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F76" t="str">
-        <v/>
+        <v>15 max. in m2                13521</v>
       </c>
       <c r="G76" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H76" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I76" t="str">
         <v/>
@@ -12175,34 +12175,34 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Eigen risico garage</v>
+        <v/>
       </c>
       <c r="B77" t="str">
-        <v>€ 80439</v>
+        <v>13521</v>
       </c>
       <c r="C77" t="str">
-        <v/>
+        <v>Getal exclusief decimalen</v>
       </c>
       <c r="D77" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E77" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F77" t="str">
-        <v>16 Eigen risico garage       € 80439</v>
+        <v/>
       </c>
       <c r="G77" t="str">
         <v/>
       </c>
       <c r="H77" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I77" t="str">
         <v/>
       </c>
       <c r="J77" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K77" t="str">
         <v/>
@@ -12211,7 +12211,7 @@
         <v/>
       </c>
       <c r="M77" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N77" t="str">
         <v/>
@@ -12222,22 +12222,22 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v/>
+        <v>Eigen risico garage</v>
       </c>
       <c r="B78" t="str">
-        <v>80439</v>
+        <v>€ 80439</v>
       </c>
       <c r="C78" t="str">
-        <v>Getal inclusief decimalen</v>
+        <v/>
       </c>
       <c r="D78" t="str">
-        <v>Rechts</v>
+        <v/>
       </c>
       <c r="E78" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F78" t="str">
-        <v/>
+        <v>16 Eigen risico garage       € 80439</v>
       </c>
       <c r="G78" t="str">
         <v/>
@@ -12258,36 +12258,36 @@
         <v/>
       </c>
       <c r="M78" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N78" t="str">
         <v/>
       </c>
       <c r="O78" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Rookkanaal aanwezig</v>
+        <v/>
       </c>
       <c r="B79" t="str">
-        <v>13662</v>
+        <v>80439</v>
       </c>
       <c r="C79" t="str">
-        <v/>
+        <v>Getal inclusief decimalen</v>
       </c>
       <c r="D79" t="str">
-        <v/>
+        <v>Rechts</v>
       </c>
       <c r="E79" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F79" t="str">
-        <v>16 Rookkanaal aanwezig       13662</v>
+        <v/>
       </c>
       <c r="G79" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H79" t="str">
         <v/>
@@ -12296,7 +12296,7 @@
         <v/>
       </c>
       <c r="J79" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K79" t="str">
         <v/>
@@ -12311,12 +12311,12 @@
         <v/>
       </c>
       <c r="O79" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v/>
+        <v>Rookkanaal aanwezig</v>
       </c>
       <c r="B80" t="str">
         <v>13662</v>
@@ -12325,19 +12325,19 @@
         <v/>
       </c>
       <c r="D80" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E80" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F80" t="str">
-        <v/>
+        <v>16 Rookkanaal aanwezig       13662</v>
       </c>
       <c r="G80" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H80" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I80" t="str">
         <v/>
@@ -12363,28 +12363,28 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Monumentaal pand</v>
+        <v/>
       </c>
       <c r="B81" t="str">
-        <v>12425</v>
+        <v>13662</v>
       </c>
       <c r="C81" t="str">
         <v/>
       </c>
       <c r="D81" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E81" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F81" t="str">
-        <v>17 Monumentaal pand          12425</v>
+        <v/>
       </c>
       <c r="G81" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H81" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I81" t="str">
         <v/>
@@ -12410,7 +12410,7 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v/>
+        <v>Monumentaal pand</v>
       </c>
       <c r="B82" t="str">
         <v>12425</v>
@@ -12419,19 +12419,19 @@
         <v/>
       </c>
       <c r="D82" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E82" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F82" t="str">
-        <v/>
+        <v>17 Monumentaal pand          12425</v>
       </c>
       <c r="G82" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H82" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I82" t="str">
         <v/>
@@ -12457,28 +12457,28 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Garantie tegen onder-</v>
+        <v/>
       </c>
       <c r="B83" t="str">
-        <v/>
+        <v>12425</v>
       </c>
       <c r="C83" t="str">
         <v/>
       </c>
       <c r="D83" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E83" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F83" t="str">
-        <v>18 Garantie tegen onder-</v>
+        <v/>
       </c>
       <c r="G83" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H83" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I83" t="str">
         <v/>
@@ -12504,10 +12504,10 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>verzekering</v>
+        <v>Garantie tegen onder-</v>
       </c>
       <c r="B84" t="str">
-        <v>10688</v>
+        <v/>
       </c>
       <c r="C84" t="str">
         <v/>
@@ -12519,13 +12519,13 @@
         <v/>
       </c>
       <c r="F84" t="str">
-        <v>19 verzekering               10688</v>
+        <v>18 Garantie tegen onder-</v>
       </c>
       <c r="G84" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H84" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I84" t="str">
         <v/>
@@ -12551,28 +12551,28 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v/>
+        <v>verzekering</v>
       </c>
       <c r="B85" t="str">
         <v>10688</v>
       </c>
       <c r="C85" t="str">
-        <v>Omschrijving</v>
+        <v/>
       </c>
       <c r="D85" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E85" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F85" t="str">
-        <v/>
+        <v>19 verzekering               10688</v>
       </c>
       <c r="G85" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H85" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I85" t="str">
         <v/>
@@ -12598,75 +12598,75 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Eigen risico</v>
+        <v/>
       </c>
       <c r="B86" t="str">
-        <v>€ 10043 Vrijwillig</v>
+        <v>10688</v>
       </c>
       <c r="C86" t="str">
-        <v/>
+        <v>Omschrijving</v>
       </c>
       <c r="D86" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E86" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F86" t="str">
-        <v>20 Eigen risico              € 10043 Vrijwillig</v>
+        <v/>
       </c>
       <c r="G86" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H86" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I86" t="str">
         <v/>
       </c>
       <c r="J86" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K86" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L86" t="str">
         <v/>
       </c>
       <c r="M86" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N86" t="str">
         <v/>
       </c>
       <c r="O86" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v/>
+        <v>Eigen risico</v>
       </c>
       <c r="B87" t="str">
-        <v>10043</v>
+        <v>€ 10043 Vrijwillig</v>
       </c>
       <c r="C87" t="str">
-        <v>Getal inclusief decimalen</v>
+        <v/>
       </c>
       <c r="D87" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E87" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F87" t="str">
-        <v/>
+        <v>20 Eigen risico              € 10043 Vrijwillig</v>
       </c>
       <c r="G87" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H87" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I87" t="str">
         <v/>
@@ -12675,16 +12675,16 @@
         <v>x</v>
       </c>
       <c r="K87" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L87" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M87" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N87" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O87" t="str">
         <v>x</v>
@@ -12692,46 +12692,46 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Afkoop eigen risico storm</v>
+        <v/>
       </c>
       <c r="B88" t="str">
-        <v>11330</v>
+        <v>10043</v>
       </c>
       <c r="C88" t="str">
-        <v/>
+        <v>Getal inclusief decimalen</v>
       </c>
       <c r="D88" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E88" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F88" t="str">
-        <v>21 Afkoop eigen risico storm 11330</v>
+        <v/>
       </c>
       <c r="G88" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H88" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I88" t="str">
         <v/>
       </c>
       <c r="J88" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K88" t="str">
         <v/>
       </c>
       <c r="L88" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M88" t="str">
         <v/>
       </c>
       <c r="N88" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O88" t="str">
         <v>x</v>
@@ -12739,7 +12739,7 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v/>
+        <v>Afkoop eigen risico storm</v>
       </c>
       <c r="B89" t="str">
         <v>11330</v>
@@ -12748,19 +12748,19 @@
         <v/>
       </c>
       <c r="D89" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E89" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F89" t="str">
-        <v/>
+        <v>21 Afkoop eigen risico storm 11330</v>
       </c>
       <c r="G89" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H89" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I89" t="str">
         <v/>
@@ -12778,57 +12778,57 @@
         <v/>
       </c>
       <c r="N89" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O89" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Verzekerde rubrieken</v>
+        <v/>
       </c>
       <c r="B90" t="str">
-        <v xml:space="preserve">                 Verzekerd bedrag</v>
+        <v>11330</v>
       </c>
       <c r="C90" t="str">
         <v/>
       </c>
       <c r="D90" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E90" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F90" t="str">
-        <v>23 Verzekerde rubrieken                              Verzekerd bedrag</v>
+        <v/>
       </c>
       <c r="G90" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H90" t="str">
         <v>x</v>
       </c>
       <c r="I90" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J90" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K90" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L90" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M90" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N90" t="str">
         <v>x</v>
       </c>
       <c r="O90" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -12868,13 +12868,13 @@
         <v>P306</v>
       </c>
       <c r="H1" t="str">
+        <v>P353</v>
+      </c>
+      <c r="I1" t="str">
         <v>P311</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>P357</v>
-      </c>
-      <c r="J1" t="str">
-        <v>P353</v>
       </c>
       <c r="K1" t="str">
         <v>P359</v>
@@ -13780,13 +13780,13 @@
         <v/>
       </c>
       <c r="H25" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I25" t="str">
         <v/>
       </c>
       <c r="J25" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K25" t="str">
         <v/>
@@ -13818,13 +13818,13 @@
         <v/>
       </c>
       <c r="H26" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I26" t="str">
         <v/>
       </c>
       <c r="J26" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K26" t="str">
         <v/>
@@ -13856,13 +13856,13 @@
         <v/>
       </c>
       <c r="H27" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I27" t="str">
         <v/>
       </c>
       <c r="J27" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K27" t="str">
         <v/>
@@ -13894,10 +13894,10 @@
         <v>x</v>
       </c>
       <c r="H28" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I28" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J28" t="str">
         <v/>
@@ -13932,10 +13932,10 @@
         <v>x</v>
       </c>
       <c r="H29" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I29" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J29" t="str">
         <v/>
@@ -14125,10 +14125,10 @@
         <v/>
       </c>
       <c r="I34" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J34" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K34" t="str">
         <v/>
@@ -14163,10 +14163,10 @@
         <v/>
       </c>
       <c r="I35" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J35" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K35" t="str">
         <v/>
@@ -14274,13 +14274,13 @@
         <v/>
       </c>
       <c r="H38" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I38" t="str">
         <v/>
       </c>
       <c r="J38" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K38" t="str">
         <v/>
@@ -14312,13 +14312,13 @@
         <v/>
       </c>
       <c r="H39" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I39" t="str">
         <v/>
       </c>
       <c r="J39" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K39" t="str">
         <v/>
@@ -14388,10 +14388,10 @@
         <v/>
       </c>
       <c r="H41" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I41" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J41" t="str">
         <v/>
@@ -14426,10 +14426,10 @@
         <v/>
       </c>
       <c r="H42" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I42" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J42" t="str">
         <v/>
@@ -14467,10 +14467,10 @@
         <v/>
       </c>
       <c r="I43" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J43" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K43" t="str">
         <v/>
@@ -14502,10 +14502,10 @@
         <v/>
       </c>
       <c r="H44" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I44" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J44" t="str">
         <v/>
@@ -14540,10 +14540,10 @@
         <v/>
       </c>
       <c r="H45" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I45" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J45" t="str">
         <v/>
@@ -14616,13 +14616,13 @@
         <v/>
       </c>
       <c r="H47" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I47" t="str">
         <v/>
       </c>
       <c r="J47" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K47" t="str">
         <v/>
@@ -14654,13 +14654,13 @@
         <v/>
       </c>
       <c r="H48" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I48" t="str">
         <v/>
       </c>
       <c r="J48" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K48" t="str">
         <v/>
@@ -14692,13 +14692,13 @@
         <v/>
       </c>
       <c r="H49" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I49" t="str">
         <v/>
       </c>
       <c r="J49" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K49" t="str">
         <v/>
@@ -14730,13 +14730,13 @@
         <v/>
       </c>
       <c r="H50" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I50" t="str">
         <v/>
       </c>
       <c r="J50" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K50" t="str">
         <v/>
@@ -14806,13 +14806,13 @@
         <v/>
       </c>
       <c r="H52" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I52" t="str">
         <v/>
       </c>
       <c r="J52" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K52" t="str">
         <v/>
@@ -14844,13 +14844,13 @@
         <v/>
       </c>
       <c r="H53" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I53" t="str">
         <v/>
       </c>
       <c r="J53" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K53" t="str">
         <v/>
@@ -14861,10 +14861,10 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Verzekerde rubrieken</v>
+        <v>Risico adres garage</v>
       </c>
       <c r="B54" t="str">
-        <v xml:space="preserve">                 Verzekerd bedrag</v>
+        <v>11640</v>
       </c>
       <c r="C54" t="str">
         <v/>
@@ -14876,7 +14876,7 @@
         <v/>
       </c>
       <c r="F54" t="str">
-        <v>14 Verzekerde rubrieken                              Verzekerd bedrag</v>
+        <v>16 Risico adres garage                                                                               11640</v>
       </c>
       <c r="G54" t="str">
         <v/>
@@ -14885,48 +14885,48 @@
         <v>x</v>
       </c>
       <c r="I54" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J54" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K54" t="str">
         <v/>
       </c>
       <c r="L54" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Risico adres garage</v>
+        <v/>
       </c>
       <c r="B55" t="str">
         <v>11640</v>
       </c>
       <c r="C55" t="str">
-        <v/>
+        <v>Getal exclusief decimalen</v>
       </c>
       <c r="D55" t="str">
-        <v/>
+        <v>Rechts</v>
       </c>
       <c r="E55" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F55" t="str">
-        <v>16 Risico adres garage                                                                               11640</v>
+        <v/>
       </c>
       <c r="G55" t="str">
         <v/>
       </c>
       <c r="H55" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I55" t="str">
         <v/>
       </c>
       <c r="J55" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K55" t="str">
         <v/>
@@ -14937,34 +14937,34 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v/>
+        <v>Huisnummer/postcode</v>
       </c>
       <c r="B56" t="str">
-        <v>11640</v>
+        <v>13551 / 13555</v>
       </c>
       <c r="C56" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v/>
       </c>
       <c r="D56" t="str">
-        <v>Rechts</v>
+        <v/>
       </c>
       <c r="E56" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F56" t="str">
-        <v/>
+        <v>17 Huisnummer/postcode       13551 / 13555</v>
       </c>
       <c r="G56" t="str">
         <v/>
       </c>
       <c r="H56" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I56" t="str">
         <v/>
       </c>
       <c r="J56" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K56" t="str">
         <v/>
@@ -14975,34 +14975,34 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Huisnummer/postcode</v>
+        <v/>
       </c>
       <c r="B57" t="str">
-        <v>13551 / 13555</v>
+        <v>13551</v>
       </c>
       <c r="C57" t="str">
-        <v/>
+        <v>Getal exclusief decimalen</v>
       </c>
       <c r="D57" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E57" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F57" t="str">
-        <v>17 Huisnummer/postcode       13551 / 13555</v>
+        <v/>
       </c>
       <c r="G57" t="str">
         <v/>
       </c>
       <c r="H57" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I57" t="str">
         <v/>
       </c>
       <c r="J57" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K57" t="str">
         <v/>
@@ -15016,10 +15016,10 @@
         <v/>
       </c>
       <c r="B58" t="str">
-        <v>13551</v>
+        <v>13555</v>
       </c>
       <c r="C58" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v/>
       </c>
       <c r="D58" t="str">
         <v>Links</v>
@@ -15034,13 +15034,13 @@
         <v/>
       </c>
       <c r="H58" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I58" t="str">
         <v/>
       </c>
       <c r="J58" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K58" t="str">
         <v/>
@@ -15051,34 +15051,34 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v/>
+        <v>Eigen risico garage</v>
       </c>
       <c r="B59" t="str">
-        <v>13555</v>
+        <v>€ 80439</v>
       </c>
       <c r="C59" t="str">
         <v/>
       </c>
       <c r="D59" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E59" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F59" t="str">
-        <v/>
+        <v>18 Eigen risico garage       € 80439</v>
       </c>
       <c r="G59" t="str">
         <v/>
       </c>
       <c r="H59" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I59" t="str">
         <v/>
       </c>
       <c r="J59" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K59" t="str">
         <v/>
@@ -15089,34 +15089,34 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Eigen risico garage</v>
+        <v/>
       </c>
       <c r="B60" t="str">
-        <v>€ 80439</v>
+        <v>80439</v>
       </c>
       <c r="C60" t="str">
-        <v/>
+        <v>Getal inclusief decimalen</v>
       </c>
       <c r="D60" t="str">
-        <v/>
+        <v>Rechts</v>
       </c>
       <c r="E60" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F60" t="str">
-        <v>18 Eigen risico garage       € 80439</v>
+        <v/>
       </c>
       <c r="G60" t="str">
         <v/>
       </c>
       <c r="H60" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I60" t="str">
         <v/>
       </c>
       <c r="J60" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K60" t="str">
         <v/>
@@ -15127,31 +15127,31 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v/>
+        <v>Verzekerde rubrieken</v>
       </c>
       <c r="B61" t="str">
-        <v>80439</v>
+        <v xml:space="preserve">                 Verzekerd bedrag</v>
       </c>
       <c r="C61" t="str">
-        <v>Getal inclusief decimalen</v>
+        <v/>
       </c>
       <c r="D61" t="str">
-        <v>Rechts</v>
+        <v/>
       </c>
       <c r="E61" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F61" t="str">
-        <v/>
+        <v>20 Verzekerde rubrieken                              Verzekerd bedrag</v>
       </c>
       <c r="G61" t="str">
         <v/>
       </c>
       <c r="H61" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I61" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J61" t="str">
         <v>x</v>
@@ -15160,7 +15160,7 @@
         <v/>
       </c>
       <c r="L61" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
   </sheetData>
